--- a/target/classes/exceldocs/MasterMapping.xlsx
+++ b/target/classes/exceldocs/MasterMapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>ServiceName</t>
   </si>
@@ -27,12 +27,6 @@
     <t>ServiceOwner</t>
   </si>
   <si>
-    <t>MFAP</t>
-  </si>
-  <si>
-    <t>Siddhanth</t>
-  </si>
-  <si>
     <t>cjb0</t>
   </si>
   <si>
@@ -45,12 +39,6 @@
     <t>VulnerabilityId</t>
   </si>
   <si>
-    <t>ESB</t>
-  </si>
-  <si>
-    <t>Siddhanath</t>
-  </si>
-  <si>
     <t>esb0</t>
   </si>
   <si>
@@ -121,6 +109,12 @@
   </si>
   <si>
     <t>v5</t>
+  </si>
+  <si>
+    <t>Tarun</t>
+  </si>
+  <si>
+    <t>ISAM</t>
   </si>
 </sst>
 </file>
@@ -552,7 +546,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -567,13 +561,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -582,187 +576,187 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/exceldocs/MasterMapping.xlsx
+++ b/target/classes/exceldocs/MasterMapping.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tarun" sheetId="3" r:id="rId1"/>
+    <sheet name="MASTER" sheetId="4" r:id="rId1"/>
+    <sheet name="Tarun" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>ServiceName</t>
   </si>
@@ -115,6 +116,9 @@
   </si>
   <si>
     <t>ISAM</t>
+  </si>
+  <si>
+    <t>Sid</t>
   </si>
 </sst>
 </file>
@@ -170,8 +174,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -195,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -205,6 +211,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -214,6 +221,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,10 +551,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
